--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.43</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT22" t="n">
         <v>1.36</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT24" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>1.36</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU26" t="n">
         <v>1.64</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT29" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.14</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.34</v>
@@ -6993,7 +6993,7 @@
         <v>1.36</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT33" t="n">
         <v>1.79</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT34" t="n">
         <v>1.14</v>
@@ -7602,7 +7602,7 @@
         <v>1.43</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>2.21</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT38" t="n">
         <v>1.07</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT45" t="n">
         <v>1.07</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>1.36</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU48" t="n">
         <v>2.41</v>
@@ -10444,7 +10444,7 @@
         <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.15</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT50" t="n">
         <v>1.79</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT51" t="n">
         <v>1.14</v>
@@ -11256,7 +11256,7 @@
         <v>1.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU53" t="n">
         <v>1.2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT54" t="n">
         <v>1.43</v>
@@ -11662,7 +11662,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT56" t="n">
         <v>1.43</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT57" t="n">
         <v>1.79</v>
@@ -12271,7 +12271,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU58" t="n">
         <v>1.65</v>
@@ -12474,7 +12474,7 @@
         <v>1.43</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -12877,7 +12877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT61" t="n">
         <v>1.36</v>
@@ -13286,7 +13286,7 @@
         <v>1.43</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU63" t="n">
         <v>1.45</v>
@@ -13692,7 +13692,7 @@
         <v>1.07</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU65" t="n">
         <v>1.34</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT66" t="n">
         <v>1.43</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -14301,7 +14301,7 @@
         <v>2.21</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -14704,10 +14704,10 @@
         <v>2.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.45</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT74" t="n">
         <v>1.43</v>
@@ -15925,7 +15925,7 @@
         <v>2.21</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16128,7 +16128,7 @@
         <v>1.43</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU77" t="n">
         <v>1.51</v>
@@ -16940,7 +16940,7 @@
         <v>1.21</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>1.29</v>
@@ -17140,10 +17140,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.41</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU83" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT85" t="n">
         <v>0.46</v>
@@ -17952,10 +17952,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -18358,7 +18358,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT88" t="n">
         <v>1.43</v>
@@ -18767,7 +18767,7 @@
         <v>1.21</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT97" t="n">
         <v>0.46</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.93</v>
@@ -20591,10 +20591,10 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20797,7 +20797,7 @@
         <v>2.15</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -20997,10 +20997,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,10 +21200,10 @@
         <v>2.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT102" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,10 +21403,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -23433,10 +23433,10 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU113" t="n">
         <v>1.16</v>
@@ -23636,10 +23636,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.57</v>
@@ -23842,7 +23842,7 @@
         <v>2.15</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24042,10 +24042,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU116" t="n">
         <v>1.88</v>
@@ -24245,7 +24245,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT117" t="n">
         <v>0.57</v>
@@ -24448,10 +24448,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -24654,7 +24654,7 @@
         <v>3</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -24857,7 +24857,7 @@
         <v>2.15</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25669,7 +25669,7 @@
         <v>1.36</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU124" t="n">
         <v>1.89</v>
@@ -26275,7 +26275,7 @@
         <v>2.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT127" t="n">
         <v>1.79</v>
@@ -26884,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>1.36</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU131" t="n">
         <v>1.88</v>
@@ -27293,7 +27293,7 @@
         <v>2.15</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU132" t="n">
         <v>1.87</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27696,7 +27696,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT134" t="n">
         <v>0.57</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU135" t="n">
         <v>1.6</v>
@@ -28105,7 +28105,7 @@
         <v>3</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>2.19</v>
@@ -28308,7 +28308,7 @@
         <v>1.14</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.43</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU139" t="n">
         <v>1.59</v>
@@ -28914,7 +28914,7 @@
         <v>1.56</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT140" t="n">
         <v>1.43</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT141" t="n">
         <v>1.43</v>
@@ -29320,7 +29320,7 @@
         <v>1.11</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT142" t="n">
         <v>1.07</v>
@@ -29729,7 +29729,7 @@
         <v>1.21</v>
       </c>
       <c r="AT144" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT146" t="n">
         <v>1.36</v>
@@ -30338,7 +30338,7 @@
         <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.85</v>
@@ -30541,7 +30541,7 @@
         <v>1.14</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU148" t="n">
         <v>1.63</v>
@@ -30744,7 +30744,7 @@
         <v>3</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU149" t="n">
         <v>2.31</v>
@@ -31147,10 +31147,10 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU151" t="n">
         <v>1.61</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT152" t="n">
         <v>0.57</v>
@@ -31556,7 +31556,7 @@
         <v>1.36</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -31962,7 +31962,7 @@
         <v>1.07</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU155" t="n">
         <v>1.5</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT156" t="n">
         <v>1.43</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT158" t="n">
         <v>0.46</v>
@@ -32771,10 +32771,10 @@
         <v>2.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT159" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU159" t="n">
         <v>1.26</v>
@@ -32974,7 +32974,7 @@
         <v>2.4</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT160" t="n">
         <v>1.79</v>
@@ -33180,7 +33180,7 @@
         <v>2.21</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>2.16</v>
@@ -33383,7 +33383,7 @@
         <v>1.36</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU162" t="n">
         <v>1.87</v>
@@ -33586,7 +33586,7 @@
         <v>1.14</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,7 +33786,7 @@
         <v>1.3</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT166" t="n">
         <v>0.57</v>
@@ -34601,7 +34601,7 @@
         <v>1.43</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU168" t="n">
         <v>1.72</v>
@@ -34804,7 +34804,7 @@
         <v>1.36</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -35207,10 +35207,10 @@
         <v>0.9</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35413,7 +35413,7 @@
         <v>1.21</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35819,7 +35819,7 @@
         <v>2.21</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU174" t="n">
         <v>2.22</v>
@@ -36019,10 +36019,10 @@
         <v>1.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT175" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36222,7 +36222,7 @@
         <v>1.45</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT176" t="n">
         <v>1.14</v>
@@ -36425,7 +36425,7 @@
         <v>1.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT177" t="n">
         <v>1.43</v>
@@ -36631,7 +36631,7 @@
         <v>1.36</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU178" t="n">
         <v>1.93</v>
@@ -36834,7 +36834,7 @@
         <v>1.14</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37034,7 +37034,7 @@
         <v>1.27</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT180" t="n">
         <v>1</v>
@@ -37443,7 +37443,7 @@
         <v>1.43</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37643,7 +37643,7 @@
         <v>1.18</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT183" t="n">
         <v>1.07</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT185" t="n">
         <v>1.14</v>
@@ -38252,10 +38252,10 @@
         <v>0.91</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU186" t="n">
         <v>1.28</v>
@@ -38458,7 +38458,7 @@
         <v>1.21</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU187" t="n">
         <v>1.6</v>
@@ -38658,7 +38658,7 @@
         <v>1.55</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT188" t="n">
         <v>1.43</v>
@@ -38864,7 +38864,7 @@
         <v>1.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU189" t="n">
         <v>1.48</v>
@@ -39064,10 +39064,10 @@
         <v>0.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU190" t="n">
         <v>1.33</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT191" t="n">
         <v>0.46</v>
@@ -39473,7 +39473,7 @@
         <v>2.15</v>
       </c>
       <c r="AT192" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39673,7 +39673,7 @@
         <v>2</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT193" t="n">
         <v>1.79</v>
@@ -40488,7 +40488,7 @@
         <v>1.43</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU197" t="n">
         <v>1.47</v>
@@ -40691,7 +40691,7 @@
         <v>2.21</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU198" t="n">
         <v>2.22</v>
@@ -41500,7 +41500,7 @@
         <v>0.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT202" t="n">
         <v>0.46</v>
@@ -41703,10 +41703,10 @@
         <v>0.83</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU203" t="n">
         <v>1.78</v>
@@ -41909,7 +41909,7 @@
         <v>1.07</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU204" t="n">
         <v>1.5</v>
@@ -42112,7 +42112,7 @@
         <v>2.15</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU205" t="n">
         <v>1.89</v>
@@ -42312,10 +42312,10 @@
         <v>0.33</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT207" t="n">
         <v>1.43</v>
@@ -42718,10 +42718,10 @@
         <v>2.08</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT208" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU208" t="n">
         <v>1.79</v>
@@ -42921,10 +42921,10 @@
         <v>2.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -44600,6 +44600,1427 @@
       </c>
       <c r="BK217" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2595350</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>8</v>
+      </c>
+      <c r="S218" t="n">
+        <v>15</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2595351</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>4</v>
+      </c>
+      <c r="S219" t="n">
+        <v>7</v>
+      </c>
+      <c r="T219" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2595354</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['45+4', '84']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>9</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>11</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V220" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2595355</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>1</v>
+      </c>
+      <c r="R221" t="n">
+        <v>10</v>
+      </c>
+      <c r="S221" t="n">
+        <v>11</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2595356</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['13', '31', '36']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>5</v>
+      </c>
+      <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>10</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V222" t="n">
+        <v>7</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2595349</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>3</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['23', '29', '33']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>5</v>
+      </c>
+      <c r="S223" t="n">
+        <v>8</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2595352</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>3</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>3</v>
+      </c>
+      <c r="L224" t="n">
+        <v>5</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>6</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['18', '21', '45+2', '53', '70']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>11</v>
+      </c>
+      <c r="R224" t="n">
+        <v>6</v>
+      </c>
+      <c r="S224" t="n">
+        <v>17</v>
+      </c>
+      <c r="T224" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X224" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.14</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT5" t="n">
         <v>1.79</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT10" t="n">
         <v>0.57</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.36</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU18" t="n">
         <v>2.04</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>1.86</v>
@@ -4557,7 +4557,7 @@
         <v>1.07</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU20" t="n">
         <v>1.13</v>
@@ -4963,7 +4963,7 @@
         <v>1.21</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.07</v>
@@ -6384,7 +6384,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -9426,10 +9426,10 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.69</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1.21</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11053,7 +11053,7 @@
         <v>2.21</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU52" t="n">
         <v>1.92</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
         <v>1.43</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
         <v>2.21</v>
@@ -12880,7 +12880,7 @@
         <v>1.36</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU61" t="n">
         <v>1.42</v>
@@ -14098,7 +14098,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14504,7 +14504,7 @@
         <v>1.21</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.24</v>
@@ -14704,7 +14704,7 @@
         <v>2.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.86</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT72" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>0.57</v>
@@ -16534,7 +16534,7 @@
         <v>1.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU79" t="n">
         <v>1.79</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -17752,7 +17752,7 @@
         <v>1.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.06</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19985,7 +19985,7 @@
         <v>3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU96" t="n">
         <v>2.42</v>
@@ -20188,7 +20188,7 @@
         <v>1.43</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU97" t="n">
         <v>1.5</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT99" t="n">
         <v>1.07</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT100" t="n">
         <v>0.93</v>
@@ -22218,7 +22218,7 @@
         <v>1.36</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -23027,7 +23027,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>1.43</v>
@@ -23233,7 +23233,7 @@
         <v>1.36</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU112" t="n">
         <v>1.89</v>
@@ -23839,7 +23839,7 @@
         <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT115" t="n">
         <v>2.21</v>
@@ -24854,7 +24854,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT120" t="n">
         <v>1.07</v>
@@ -25060,7 +25060,7 @@
         <v>2.21</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25260,7 +25260,7 @@
         <v>1.25</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
         <v>1.07</v>
@@ -25466,7 +25466,7 @@
         <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -26075,7 +26075,7 @@
         <v>1.21</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU126" t="n">
         <v>1.46</v>
@@ -26275,7 +26275,7 @@
         <v>2.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
         <v>1.79</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT132" t="n">
         <v>1.43</v>
@@ -28511,7 +28511,7 @@
         <v>1.43</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU138" t="n">
         <v>1.6</v>
@@ -28711,7 +28711,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.93</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
         <v>1.43</v>
@@ -29932,7 +29932,7 @@
         <v>2.21</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU145" t="n">
         <v>2.11</v>
@@ -30135,7 +30135,7 @@
         <v>1.43</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU146" t="n">
         <v>1.78</v>
@@ -30944,7 +30944,7 @@
         <v>1.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU154" t="n">
         <v>1.66</v>
@@ -32365,7 +32365,7 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT157" t="n">
         <v>1.43</v>
@@ -32568,10 +32568,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU158" t="n">
         <v>1.38</v>
@@ -33989,7 +33989,7 @@
         <v>1.3</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT165" t="n">
         <v>1.07</v>
@@ -34398,7 +34398,7 @@
         <v>3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU167" t="n">
         <v>2.35</v>
@@ -35007,7 +35007,7 @@
         <v>1.07</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>0.9</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT171" t="n">
         <v>0.93</v>
@@ -35613,7 +35613,7 @@
         <v>1.45</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT173" t="n">
         <v>1.43</v>
@@ -36225,7 +36225,7 @@
         <v>1.71</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -37440,7 +37440,7 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT182" t="n">
         <v>1.07</v>
@@ -38052,7 +38052,7 @@
         <v>1.43</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU185" t="n">
         <v>1.82</v>
@@ -39064,7 +39064,7 @@
         <v>0.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT190" t="n">
         <v>0.71</v>
@@ -39270,7 +39270,7 @@
         <v>1.71</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU191" t="n">
         <v>1.73</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT192" t="n">
         <v>1.86</v>
@@ -40485,7 +40485,7 @@
         <v>1.55</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT197" t="n">
         <v>1.43</v>
@@ -41097,7 +41097,7 @@
         <v>1.36</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU200" t="n">
         <v>1.88</v>
@@ -41300,7 +41300,7 @@
         <v>1.43</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU201" t="n">
         <v>1.69</v>
@@ -41503,7 +41503,7 @@
         <v>1.43</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU202" t="n">
         <v>1.7</v>
@@ -42109,7 +42109,7 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT205" t="n">
         <v>1</v>
@@ -42921,7 +42921,7 @@
         <v>2.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT209" t="n">
         <v>2.21</v>
@@ -43327,10 +43327,10 @@
         <v>1.23</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU211" t="n">
         <v>1.5</v>
@@ -43939,7 +43939,7 @@
         <v>1.36</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU214" t="n">
         <v>1.82</v>
@@ -44748,7 +44748,7 @@
         <v>1.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT218" t="n">
         <v>1.43</v>
@@ -45802,22 +45802,22 @@
         <v>2.21</v>
       </c>
       <c r="BF223" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG223" t="n">
         <v>4</v>
       </c>
       <c r="BH223" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI223" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BJ223" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK223" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
@@ -46005,22 +46005,631 @@
         <v>2.84</v>
       </c>
       <c r="BF224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2595353</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45039.58333333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['34', '49', '57', '86']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>12</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>14</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V225" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X225" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2595364</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45041.52083333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>4</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['55', '57', '73']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>10</v>
+      </c>
+      <c r="S226" t="n">
+        <v>13</v>
+      </c>
+      <c r="T226" t="n">
+        <v>4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG226" t="n">
         <v>9</v>
       </c>
-      <c r="BG224" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH224" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI224" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ224" t="n">
+      <c r="BH226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK226" t="n">
         <v>12</v>
       </c>
-      <c r="BK224" t="n">
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2595360</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45041.52083333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6</v>
+      </c>
+      <c r="S227" t="n">
         <v>10</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK227"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT2" t="n">
         <v>1.13</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT18" t="n">
         <v>0.43</v>
@@ -4354,7 +4354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU23" t="n">
         <v>2.02</v>
@@ -5369,7 +5369,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU24" t="n">
         <v>2.34</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT26" t="n">
         <v>0.71</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>1.21</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>0.93</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8211,7 +8211,7 @@
         <v>1.71</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>2.21</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.07</v>
@@ -8617,7 +8617,7 @@
         <v>1.07</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT42" t="n">
         <v>0.57</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>2.21</v>
@@ -9632,7 +9632,7 @@
         <v>1.43</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.07</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT47" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>1.43</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>2.23</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT52" t="n">
         <v>0.43</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT53" t="n">
         <v>0.93</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -11662,7 +11662,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11865,7 +11865,7 @@
         <v>1.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12068,7 +12068,7 @@
         <v>1.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT58" t="n">
         <v>1.07</v>
@@ -12677,7 +12677,7 @@
         <v>1.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.82</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT62" t="n">
         <v>0.57</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>1.43</v>
@@ -13895,7 +13895,7 @@
         <v>1.21</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU66" t="n">
         <v>0.97</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT68" t="n">
         <v>0.93</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT69" t="n">
         <v>0.43</v>
@@ -14707,7 +14707,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU70" t="n">
         <v>1.45</v>
@@ -15113,7 +15113,7 @@
         <v>2.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -15316,7 +15316,7 @@
         <v>1.36</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.96</v>
@@ -15519,7 +15519,7 @@
         <v>1.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT76" t="n">
         <v>1.43</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
         <v>1.07</v>
@@ -16531,7 +16531,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT79" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>3</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU80" t="n">
         <v>2.47</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT81" t="n">
         <v>0.71</v>
@@ -17955,7 +17955,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18361,7 +18361,7 @@
         <v>1.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18764,7 +18764,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT90" t="n">
         <v>1.07</v>
@@ -18970,7 +18970,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT92" t="n">
         <v>0.57</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT93" t="n">
         <v>1.27</v>
@@ -19576,10 +19576,10 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.73</v>
@@ -19779,10 +19779,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -21203,7 +21203,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT105" t="n">
         <v>0.57</v>
@@ -22012,7 +22012,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT107" t="n">
         <v>1.13</v>
@@ -22418,10 +22418,10 @@
         <v>2.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22624,7 +22624,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU109" t="n">
         <v>1.97</v>
@@ -22827,7 +22827,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU110" t="n">
         <v>1.47</v>
@@ -23030,7 +23030,7 @@
         <v>1.4</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.56</v>
@@ -25057,7 +25057,7 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.27</v>
@@ -25263,7 +25263,7 @@
         <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.58</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT123" t="n">
         <v>1.13</v>
@@ -25666,10 +25666,10 @@
         <v>2.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU124" t="n">
         <v>1.89</v>
@@ -25869,7 +25869,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT126" t="n">
         <v>1.27</v>
@@ -26278,7 +26278,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.43</v>
@@ -26481,7 +26481,7 @@
         <v>1.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU128" t="n">
         <v>1.51</v>
@@ -26681,10 +26681,10 @@
         <v>1.43</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -28305,7 +28305,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT137" t="n">
         <v>0.93</v>
@@ -28508,7 +28508,7 @@
         <v>0.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT138" t="n">
         <v>0.43</v>
@@ -28917,7 +28917,7 @@
         <v>1.71</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU140" t="n">
         <v>1.88</v>
@@ -29120,7 +29120,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU141" t="n">
         <v>1.4</v>
@@ -29323,7 +29323,7 @@
         <v>1.21</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU142" t="n">
         <v>1.26</v>
@@ -29526,7 +29526,7 @@
         <v>1.07</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU143" t="n">
         <v>1.59</v>
@@ -29726,10 +29726,10 @@
         <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -29929,7 +29929,7 @@
         <v>1.44</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT145" t="n">
         <v>1.13</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT148" t="n">
         <v>0.71</v>
@@ -31756,7 +31756,7 @@
         <v>1.3</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT154" t="n">
         <v>1.13</v>
@@ -32165,7 +32165,7 @@
         <v>1.43</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.78</v>
@@ -32368,7 +32368,7 @@
         <v>1.4</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU157" t="n">
         <v>1.6</v>
@@ -32774,7 +32774,7 @@
         <v>1.21</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.26</v>
@@ -32977,7 +32977,7 @@
         <v>1.71</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU160" t="n">
         <v>1.82</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT161" t="n">
         <v>1</v>
@@ -33583,7 +33583,7 @@
         <v>2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT163" t="n">
         <v>2.21</v>
@@ -33992,7 +33992,7 @@
         <v>2.21</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU165" t="n">
         <v>1.93</v>
@@ -34598,7 +34598,7 @@
         <v>0.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT168" t="n">
         <v>0.71</v>
@@ -34801,7 +34801,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT169" t="n">
         <v>1.43</v>
@@ -35410,7 +35410,7 @@
         <v>0.8</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -35616,7 +35616,7 @@
         <v>2.21</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU173" t="n">
         <v>1.85</v>
@@ -35816,7 +35816,7 @@
         <v>0.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT174" t="n">
         <v>0.71</v>
@@ -36022,7 +36022,7 @@
         <v>1.43</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36428,7 +36428,7 @@
         <v>1.21</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU177" t="n">
         <v>1.32</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT178" t="n">
         <v>2.21</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT179" t="n">
         <v>1.43</v>
@@ -37240,7 +37240,7 @@
         <v>3</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU181" t="n">
         <v>2.32</v>
@@ -37646,7 +37646,7 @@
         <v>1.36</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -38455,7 +38455,7 @@
         <v>2.18</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT187" t="n">
         <v>2.21</v>
@@ -38661,7 +38661,7 @@
         <v>1.43</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -39473,7 +39473,7 @@
         <v>2.21</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39676,7 +39676,7 @@
         <v>1.36</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -39876,7 +39876,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT194" t="n">
         <v>1</v>
@@ -40079,10 +40079,10 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU195" t="n">
         <v>1.87</v>
@@ -40285,7 +40285,7 @@
         <v>3</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU196" t="n">
         <v>2.29</v>
@@ -40688,7 +40688,7 @@
         <v>1.25</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT198" t="n">
         <v>1.07</v>
@@ -40891,7 +40891,7 @@
         <v>0.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT199" t="n">
         <v>0.57</v>
@@ -41297,7 +41297,7 @@
         <v>1.25</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT201" t="n">
         <v>1.27</v>
@@ -42518,7 +42518,7 @@
         <v>1.36</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU207" t="n">
         <v>1.68</v>
@@ -42721,7 +42721,7 @@
         <v>1.43</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU208" t="n">
         <v>1.79</v>
@@ -43124,10 +43124,10 @@
         <v>1.31</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU210" t="n">
         <v>1.68</v>
@@ -43530,10 +43530,10 @@
         <v>1.08</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43733,10 +43733,10 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU213" t="n">
         <v>2.19</v>
@@ -44139,7 +44139,7 @@
         <v>1.08</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT215" t="n">
         <v>1</v>
@@ -44545,10 +44545,10 @@
         <v>1.92</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU217" t="n">
         <v>1.91</v>
@@ -45563,7 +45563,7 @@
         <v>3</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU222" t="n">
         <v>2.27</v>
@@ -46411,22 +46411,22 @@
         <v>2.24</v>
       </c>
       <c r="BF226" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG226" t="n">
         <v>9</v>
       </c>
       <c r="BH226" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ226" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK226" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227">
@@ -46614,7 +46614,7 @@
         <v>2.2</v>
       </c>
       <c r="BF227" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG227" t="n">
         <v>2</v>
@@ -46626,10 +46626,1228 @@
         <v>6</v>
       </c>
       <c r="BJ227" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK227" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2595358</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45041.60416666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['81', '83']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>4</v>
+      </c>
+      <c r="S228" t="n">
+        <v>8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>5</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2595359</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45042.52083333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['16', '25']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['81', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>10</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>15</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2595362</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45042.52083333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['49', '79']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>9</v>
+      </c>
+      <c r="R230" t="n">
+        <v>5</v>
+      </c>
+      <c r="S230" t="n">
+        <v>14</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2595363</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45042.52083333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>10</v>
+      </c>
+      <c r="R231" t="n">
+        <v>3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>13</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2595357</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45042.52083333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>4</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>5</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['31', '53', '71', '90+3']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>4</v>
+      </c>
+      <c r="R232" t="n">
+        <v>8</v>
+      </c>
+      <c r="S232" t="n">
+        <v>12</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2595361</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45042.60416666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['45+3', '90+13']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>10</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V233" t="n">
+        <v>5</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT2" t="n">
         <v>1.13</v>
@@ -1106,7 +1106,7 @@
         <v>1.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
         <v>1.4</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.67</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.73</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT20" t="n">
         <v>0.47</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.15</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT26" t="n">
         <v>0.73</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU28" t="n">
         <v>1.34</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6790,7 +6790,7 @@
         <v>2.87</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>0.47</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -9629,10 +9629,10 @@
         <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU49" t="n">
         <v>1.15</v>
@@ -12065,10 +12065,10 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>2.27</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.64</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.42</v>
@@ -14707,7 +14707,7 @@
         <v>1.8</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU70" t="n">
         <v>1.88</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT72" t="n">
         <v>1.53</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -16125,10 +16125,10 @@
         <v>1.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU77" t="n">
         <v>1.79</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.3</v>
@@ -16940,7 +16940,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT84" t="n">
         <v>1.13</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>1.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -19173,7 +19173,7 @@
         <v>2.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>2.01</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19576,7 +19576,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT94" t="n">
         <v>1.2</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU97" t="n">
         <v>1.93</v>
@@ -20391,7 +20391,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU98" t="n">
         <v>1.37</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT100" t="n">
         <v>1.07</v>
@@ -21812,7 +21812,7 @@
         <v>1.13</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT107" t="n">
         <v>1.13</v>
@@ -22418,7 +22418,7 @@
         <v>2.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT108" t="n">
         <v>1.67</v>
@@ -22824,7 +22824,7 @@
         <v>1.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT110" t="n">
         <v>1.4</v>
@@ -23233,7 +23233,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU112" t="n">
         <v>1.16</v>
@@ -23436,7 +23436,7 @@
         <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.57</v>
@@ -23839,7 +23839,7 @@
         <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT115" t="n">
         <v>2.27</v>
@@ -24451,7 +24451,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.93</v>
@@ -24854,10 +24854,10 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25060,7 +25060,7 @@
         <v>2.27</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25260,7 +25260,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>1.73</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.2</v>
@@ -26481,7 +26481,7 @@
         <v>1.13</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26681,7 +26681,7 @@
         <v>1.43</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT129" t="n">
         <v>1.53</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT132" t="n">
         <v>1.4</v>
@@ -27699,7 +27699,7 @@
         <v>2.87</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU134" t="n">
         <v>2.19</v>
@@ -27902,7 +27902,7 @@
         <v>1.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU135" t="n">
         <v>1.6</v>
@@ -28105,7 +28105,7 @@
         <v>1.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.77</v>
@@ -28305,7 +28305,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT137" t="n">
         <v>1.07</v>
@@ -28914,7 +28914,7 @@
         <v>0.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.07</v>
@@ -30132,10 +30132,10 @@
         <v>0.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU146" t="n">
         <v>1.85</v>
@@ -30335,7 +30335,7 @@
         <v>0.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT147" t="n">
         <v>0.73</v>
@@ -30541,7 +30541,7 @@
         <v>1.33</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU148" t="n">
         <v>1.78</v>
@@ -30744,7 +30744,7 @@
         <v>2.87</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU149" t="n">
         <v>2.31</v>
@@ -30947,7 +30947,7 @@
         <v>1.33</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU150" t="n">
         <v>1.59</v>
@@ -31147,7 +31147,7 @@
         <v>1.44</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -32365,7 +32365,7 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
         <v>1.53</v>
@@ -33180,7 +33180,7 @@
         <v>2.27</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU161" t="n">
         <v>2.16</v>
@@ -33380,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT162" t="n">
         <v>2.27</v>
@@ -33789,7 +33789,7 @@
         <v>1.47</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU164" t="n">
         <v>1.87</v>
@@ -33989,7 +33989,7 @@
         <v>1.3</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT165" t="n">
         <v>1.2</v>
@@ -34398,7 +34398,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.66</v>
@@ -34601,7 +34601,7 @@
         <v>2.87</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU168" t="n">
         <v>2.35</v>
@@ -34801,7 +34801,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT169" t="n">
         <v>1.4</v>
@@ -35004,7 +35004,7 @@
         <v>1.45</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT170" t="n">
         <v>1.4</v>
@@ -35210,7 +35210,7 @@
         <v>1.13</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU171" t="n">
         <v>1.62</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT179" t="n">
         <v>1.4</v>
@@ -37034,7 +37034,7 @@
         <v>2.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT180" t="n">
         <v>2.27</v>
@@ -37440,10 +37440,10 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37849,7 +37849,7 @@
         <v>1.47</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -38864,7 +38864,7 @@
         <v>1.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>1.48</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT192" t="n">
         <v>1.73</v>
@@ -39673,7 +39673,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT193" t="n">
         <v>1</v>
@@ -39876,7 +39876,7 @@
         <v>1.08</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT194" t="n">
         <v>1.2</v>
@@ -40485,7 +40485,7 @@
         <v>1.55</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1.4</v>
@@ -40691,7 +40691,7 @@
         <v>2.27</v>
       </c>
       <c r="AT198" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU198" t="n">
         <v>2.22</v>
@@ -40894,7 +40894,7 @@
         <v>1.4</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU199" t="n">
         <v>1.72</v>
@@ -41097,7 +41097,7 @@
         <v>1.47</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU200" t="n">
         <v>1.88</v>
@@ -41300,7 +41300,7 @@
         <v>1.4</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU201" t="n">
         <v>1.69</v>
@@ -42109,10 +42109,10 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU205" t="n">
         <v>1.89</v>
@@ -43124,7 +43124,7 @@
         <v>1.31</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT210" t="n">
         <v>1.4</v>
@@ -43327,10 +43327,10 @@
         <v>1.23</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU211" t="n">
         <v>1.5</v>
@@ -44142,7 +44142,7 @@
         <v>1.07</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU215" t="n">
         <v>1.47</v>
@@ -44545,7 +44545,7 @@
         <v>1.92</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT217" t="n">
         <v>1.67</v>
@@ -45766,7 +45766,7 @@
         <v>1.33</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU223" t="n">
         <v>1.31</v>
@@ -45969,7 +45969,7 @@
         <v>1.33</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46169,7 +46169,7 @@
         <v>0.46</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT225" t="n">
         <v>0.47</v>
@@ -46372,7 +46372,7 @@
         <v>1.14</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT226" t="n">
         <v>1.13</v>
@@ -46578,7 +46578,7 @@
         <v>1.33</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU227" t="n">
         <v>1.35</v>
@@ -46778,7 +46778,7 @@
         <v>1.43</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT228" t="n">
         <v>1.53</v>
@@ -46981,7 +46981,7 @@
         <v>1.86</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT229" t="n">
         <v>1.73</v>
@@ -47999,7 +47999,7 @@
         <v>1.47</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU234" t="n">
         <v>1.82</v>
@@ -49014,7 +49014,7 @@
         <v>1.8</v>
       </c>
       <c r="AT239" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU239" t="n">
         <v>1.68</v>
@@ -49217,7 +49217,7 @@
         <v>1.33</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU240" t="n">
         <v>1.4</v>
@@ -49417,7 +49417,7 @@
         <v>0.71</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT241" t="n">
         <v>0.73</v>
@@ -49472,6 +49472,818 @@
       </c>
       <c r="BK241" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6021789</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45052.41666666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>2</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>6</v>
+      </c>
+      <c r="R242" t="n">
+        <v>6</v>
+      </c>
+      <c r="S242" t="n">
+        <v>12</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X242" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6021790</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45052.41666666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>3</v>
+      </c>
+      <c r="L243" t="n">
+        <v>4</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>4</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['10', '32', '37', '62']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>4</v>
+      </c>
+      <c r="R243" t="n">
+        <v>1</v>
+      </c>
+      <c r="S243" t="n">
+        <v>5</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V243" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X243" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6021791</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45052.41666666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>1</v>
+      </c>
+      <c r="R244" t="n">
+        <v>11</v>
+      </c>
+      <c r="S244" t="n">
+        <v>12</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6021792</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45052.54166666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>4</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['47', '74']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['64', '76']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>7</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>10</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.27</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9399999999999999</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT14" t="n">
         <v>0.9399999999999999</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT17" t="n">
         <v>0.47</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU22" t="n">
         <v>2.34</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6993,7 +6993,7 @@
         <v>1.47</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>2.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -9226,7 +9226,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU44" t="n">
         <v>1.07</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT48" t="n">
         <v>0.73</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -11256,7 +11256,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU53" t="n">
         <v>1.36</v>
@@ -12268,7 +12268,7 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
         <v>1.67</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -12677,7 +12677,7 @@
         <v>1.47</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU60" t="n">
         <v>1.82</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.45</v>
@@ -13283,7 +13283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT63" t="n">
         <v>1.25</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
         <v>1.4</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT74" t="n">
         <v>1.4</v>
@@ -15925,7 +15925,7 @@
         <v>2.27</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16734,10 +16734,10 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU80" t="n">
         <v>2.47</v>
@@ -17143,7 +17143,7 @@
         <v>1.07</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT85" t="n">
         <v>0.47</v>
@@ -17955,7 +17955,7 @@
         <v>1.8</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18358,7 +18358,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT88" t="n">
         <v>1.53</v>
@@ -19579,7 +19579,7 @@
         <v>1.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.73</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT96" t="n">
         <v>1.13</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>0.47</v>
@@ -20997,10 +20997,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21403,10 +21403,10 @@
         <v>2.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -21606,10 +21606,10 @@
         <v>2.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -22624,7 +22624,7 @@
         <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU109" t="n">
         <v>1.47</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT112" t="n">
         <v>0.9399999999999999</v>
@@ -23433,7 +23433,7 @@
         <v>0.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9399999999999999</v>
@@ -23842,7 +23842,7 @@
         <v>2.06</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT116" t="n">
         <v>0.73</v>
@@ -24248,7 +24248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU117" t="n">
         <v>1.88</v>
@@ -24651,7 +24651,7 @@
         <v>0.83</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT119" t="n">
         <v>1.07</v>
@@ -25263,7 +25263,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU122" t="n">
         <v>1.89</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU123" t="n">
         <v>1.58</v>
@@ -27293,7 +27293,7 @@
         <v>2.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.87</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT134" t="n">
         <v>0.9399999999999999</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
         <v>0.9399999999999999</v>
@@ -29320,10 +29320,10 @@
         <v>1.11</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU142" t="n">
         <v>1.26</v>
@@ -29729,7 +29729,7 @@
         <v>1.13</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30741,7 +30741,7 @@
         <v>1.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT149" t="n">
         <v>0.9399999999999999</v>
@@ -30944,7 +30944,7 @@
         <v>0.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT150" t="n">
         <v>0.5</v>
@@ -31350,10 +31350,10 @@
         <v>1.5</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31556,7 +31556,7 @@
         <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -32568,10 +32568,10 @@
         <v>2.11</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU158" t="n">
         <v>1.26</v>
@@ -33383,7 +33383,7 @@
         <v>1.25</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33583,7 +33583,7 @@
         <v>1.3</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -33992,7 +33992,7 @@
         <v>2.06</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU165" t="n">
         <v>1.93</v>
@@ -34395,7 +34395,7 @@
         <v>0.7</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT167" t="n">
         <v>0.5</v>
@@ -34598,7 +34598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT168" t="n">
         <v>1.25</v>
@@ -34804,7 +34804,7 @@
         <v>1.38</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -36022,7 +36022,7 @@
         <v>1.33</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36425,7 +36425,7 @@
         <v>1.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT177" t="n">
         <v>1.53</v>
@@ -36628,7 +36628,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -36834,7 +36834,7 @@
         <v>1.25</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37037,7 +37037,7 @@
         <v>1.38</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU180" t="n">
         <v>1.93</v>
@@ -37237,7 +37237,7 @@
         <v>2.18</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT181" t="n">
         <v>1.67</v>
@@ -37643,10 +37643,10 @@
         <v>1.18</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT185" t="n">
         <v>1.13</v>
@@ -38255,7 +38255,7 @@
         <v>1.13</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU186" t="n">
         <v>1.6</v>
@@ -38455,7 +38455,7 @@
         <v>0.91</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT187" t="n">
         <v>1.07</v>
@@ -39473,7 +39473,7 @@
         <v>2.06</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39879,7 +39879,7 @@
         <v>1.38</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU194" t="n">
         <v>1.87</v>
@@ -40079,7 +40079,7 @@
         <v>2</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT195" t="n">
         <v>1.67</v>
@@ -40282,7 +40282,7 @@
         <v>1.42</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT196" t="n">
         <v>1.4</v>
@@ -40488,7 +40488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU197" t="n">
         <v>1.47</v>
@@ -41706,7 +41706,7 @@
         <v>1.07</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU203" t="n">
         <v>1.5</v>
@@ -42312,7 +42312,7 @@
         <v>0.33</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT206" t="n">
         <v>0.73</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT207" t="n">
         <v>1.53</v>
@@ -42718,10 +42718,10 @@
         <v>2.08</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU208" t="n">
         <v>1.79</v>
@@ -42924,7 +42924,7 @@
         <v>1.33</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -43533,7 +43533,7 @@
         <v>1.4</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -44748,7 +44748,7 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT218" t="n">
         <v>1.07</v>
@@ -44951,7 +44951,7 @@
         <v>0.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT219" t="n">
         <v>0.73</v>
@@ -45157,7 +45157,7 @@
         <v>1.8</v>
       </c>
       <c r="AT220" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU220" t="n">
         <v>1.75</v>
@@ -45360,7 +45360,7 @@
         <v>1.33</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU221" t="n">
         <v>1.35</v>
@@ -45560,10 +45560,10 @@
         <v>2</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU222" t="n">
         <v>2.27</v>
@@ -45763,7 +45763,7 @@
         <v>1.08</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT223" t="n">
         <v>0.9399999999999999</v>
@@ -46984,7 +46984,7 @@
         <v>1.25</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU229" t="n">
         <v>1.65</v>
@@ -47390,7 +47390,7 @@
         <v>1.13</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU231" t="n">
         <v>1.57</v>
@@ -48199,10 +48199,10 @@
         <v>1.43</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU235" t="n">
         <v>2.23</v>
@@ -48402,7 +48402,7 @@
         <v>0.93</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT236" t="n">
         <v>1.07</v>
@@ -48605,7 +48605,7 @@
         <v>0.43</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT237" t="n">
         <v>0.47</v>
@@ -48811,7 +48811,7 @@
         <v>1.33</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU238" t="n">
         <v>1.72</v>
@@ -49214,7 +49214,7 @@
         <v>0.57</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT240" t="n">
         <v>0.5</v>
@@ -49662,16 +49662,16 @@
         <v>4</v>
       </c>
       <c r="BG242" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH242" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ242" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK242" t="n">
         <v>11</v>
@@ -49862,22 +49862,22 @@
         <v>2.02</v>
       </c>
       <c r="BF243" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH243" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BI243" t="n">
         <v>2</v>
       </c>
       <c r="BJ243" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK243" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -50068,19 +50068,19 @@
         <v>3</v>
       </c>
       <c r="BG244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH244" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI244" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ244" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK244" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
@@ -50284,6 +50284,818 @@
       </c>
       <c r="BK245" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6021795</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>11</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4</v>
+      </c>
+      <c r="S246" t="n">
+        <v>15</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X246" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6021793</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>5</v>
+      </c>
+      <c r="R247" t="n">
+        <v>14</v>
+      </c>
+      <c r="S247" t="n">
+        <v>19</v>
+      </c>
+      <c r="T247" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6021794</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2</v>
+      </c>
+      <c r="K248" t="n">
+        <v>4</v>
+      </c>
+      <c r="L248" t="n">
+        <v>3</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['25', '41', '50']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['7', '10']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>6</v>
+      </c>
+      <c r="R248" t="n">
+        <v>4</v>
+      </c>
+      <c r="S248" t="n">
+        <v>10</v>
+      </c>
+      <c r="T248" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>6021796</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45053.54166666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>6</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>6</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['31', '48', '53', '57', '82', '84']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>7</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2</v>
+      </c>
+      <c r="S249" t="n">
+        <v>9</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V249" t="n">
+        <v>7</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.59</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT9" t="n">
         <v>1.13</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.38</v>
@@ -4354,7 +4354,7 @@
         <v>1.59</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4760,7 +4760,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -7196,7 +7196,7 @@
         <v>1.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8211,7 +8211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU38" t="n">
         <v>1.07</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>1.44</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU51" t="n">
         <v>2.23</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT52" t="n">
         <v>0.44</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU53" t="n">
         <v>1.36</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU55" t="n">
         <v>1.62</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT56" t="n">
         <v>1.44</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU58" t="n">
         <v>1.57</v>
@@ -14098,7 +14098,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU67" t="n">
         <v>0.97</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT68" t="n">
         <v>1.06</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT70" t="n">
         <v>0.9399999999999999</v>
@@ -15519,7 +15519,7 @@
         <v>1.31</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU75" t="n">
         <v>1.96</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT76" t="n">
         <v>1.38</v>
@@ -17952,10 +17952,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18970,7 +18970,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT92" t="n">
         <v>0.65</v>
@@ -19782,7 +19782,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT102" t="n">
         <v>0.73</v>
@@ -21406,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -22421,7 +22421,7 @@
         <v>1.25</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22827,7 +22827,7 @@
         <v>1.59</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -24448,7 +24448,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT118" t="n">
         <v>0.65</v>
@@ -25057,7 +25057,7 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT121" t="n">
         <v>1.24</v>
@@ -25263,7 +25263,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU122" t="n">
         <v>1.89</v>
@@ -25869,7 +25869,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT125" t="n">
         <v>0.9399999999999999</v>
@@ -26075,7 +26075,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU126" t="n">
         <v>1.43</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
         <v>0.9399999999999999</v>
@@ -28508,10 +28508,10 @@
         <v>1.56</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU138" t="n">
         <v>1.88</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU143" t="n">
         <v>1.59</v>
@@ -29729,7 +29729,7 @@
         <v>1.25</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -29929,7 +29929,7 @@
         <v>1.44</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT145" t="n">
         <v>1.06</v>
@@ -31759,7 +31759,7 @@
         <v>1.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU154" t="n">
         <v>1.78</v>
@@ -32774,7 +32774,7 @@
         <v>1.44</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU159" t="n">
         <v>1.26</v>
@@ -32974,10 +32974,10 @@
         <v>2.4</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU160" t="n">
         <v>1.82</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT161" t="n">
         <v>0.9399999999999999</v>
@@ -35616,7 +35616,7 @@
         <v>1.94</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU173" t="n">
         <v>1.85</v>
@@ -35816,7 +35816,7 @@
         <v>0.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT174" t="n">
         <v>0.73</v>
@@ -36022,7 +36022,7 @@
         <v>1.44</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36222,7 +36222,7 @@
         <v>1.45</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT176" t="n">
         <v>1.06</v>
@@ -37240,7 +37240,7 @@
         <v>2.88</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU181" t="n">
         <v>2.32</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT191" t="n">
         <v>0.44</v>
@@ -39473,7 +39473,7 @@
         <v>1.94</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39676,7 +39676,7 @@
         <v>1.31</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40285,7 +40285,7 @@
         <v>2.88</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU196" t="n">
         <v>2.29</v>
@@ -40891,7 +40891,7 @@
         <v>1.25</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT199" t="n">
         <v>0.9399999999999999</v>
@@ -41703,7 +41703,7 @@
         <v>0.83</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT203" t="n">
         <v>1.06</v>
@@ -42315,7 +42315,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU206" t="n">
         <v>1.79</v>
@@ -43127,7 +43127,7 @@
         <v>1.25</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU210" t="n">
         <v>1.68</v>
@@ -43733,7 +43733,7 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT213" t="n">
         <v>1.44</v>
@@ -44548,7 +44548,7 @@
         <v>1.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU217" t="n">
         <v>1.91</v>
@@ -45154,7 +45154,7 @@
         <v>2.31</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT220" t="n">
         <v>2.31</v>
@@ -45563,7 +45563,7 @@
         <v>2.88</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU222" t="n">
         <v>2.27</v>
@@ -47390,7 +47390,7 @@
         <v>1.38</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU231" t="n">
         <v>1.67</v>
@@ -47593,7 +47593,7 @@
         <v>1.25</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU232" t="n">
         <v>1.65</v>
@@ -47793,10 +47793,10 @@
         <v>1.79</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU233" t="n">
         <v>2.15</v>
@@ -48199,7 +48199,7 @@
         <v>1.07</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT235" t="n">
         <v>0.9399999999999999</v>
@@ -51044,7 +51044,7 @@
         <v>2.88</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU249" t="n">
         <v>2.2</v>
@@ -51450,7 +51450,7 @@
         <v>1.94</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU251" t="n">
         <v>1.91</v>
@@ -51853,7 +51853,7 @@
         <v>1.53</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT253" t="n">
         <v>1.44</v>
@@ -52720,6 +52720,615 @@
       </c>
       <c r="BK257" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6021805</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45066.41666666666</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>2</v>
+      </c>
+      <c r="N258" t="n">
+        <v>4</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['45', '85']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['50', '79']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>5</v>
+      </c>
+      <c r="R258" t="n">
+        <v>6</v>
+      </c>
+      <c r="S258" t="n">
+        <v>11</v>
+      </c>
+      <c r="T258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V258" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6021806</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45066.41666666666</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['68', '85']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>6</v>
+      </c>
+      <c r="S259" t="n">
+        <v>8</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X259" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6021807</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45066.54166666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>3</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['5', '69']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>10</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2</v>
+      </c>
+      <c r="S260" t="n">
+        <v>12</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V260" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT4" t="n">
         <v>1.47</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
         <v>0.9399999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT7" t="n">
         <v>1.44</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT8" t="n">
         <v>1.53</v>
@@ -2324,7 +2324,7 @@
         <v>2.35</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.88</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU20" t="n">
         <v>2.04</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT21" t="n">
         <v>1.56</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU22" t="n">
         <v>2.34</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT24" t="n">
         <v>1.44</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU26" t="n">
         <v>1.64</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>1.06</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT35" t="n">
         <v>1.06</v>
@@ -7805,7 +7805,7 @@
         <v>1.59</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT38" t="n">
         <v>1.47</v>
@@ -8414,7 +8414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT43" t="n">
         <v>2.31</v>
@@ -9429,7 +9429,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU44" t="n">
         <v>1.07</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10241,7 +10241,7 @@
         <v>2.88</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>2.41</v>
@@ -11053,7 +11053,7 @@
         <v>2.35</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU52" t="n">
         <v>1.92</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT54" t="n">
         <v>1.06</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT55" t="n">
         <v>1.47</v>
@@ -12068,7 +12068,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12677,7 +12677,7 @@
         <v>1.44</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU60" t="n">
         <v>1.82</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT61" t="n">
         <v>0.65</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT62" t="n">
         <v>1.38</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU66" t="n">
         <v>1.34</v>
@@ -14501,7 +14501,7 @@
         <v>2.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT69" t="n">
         <v>1.53</v>
@@ -14907,10 +14907,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU71" t="n">
         <v>1.24</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT73" t="n">
         <v>0.9399999999999999</v>
@@ -16328,10 +16328,10 @@
         <v>3</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>2.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU80" t="n">
         <v>2.47</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9399999999999999</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.29</v>
@@ -17752,7 +17752,7 @@
         <v>1.44</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU85" t="n">
         <v>1.06</v>
@@ -18764,10 +18764,10 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT93" t="n">
         <v>1.24</v>
@@ -19579,7 +19579,7 @@
         <v>1.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU94" t="n">
         <v>1.73</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT95" t="n">
         <v>1.56</v>
@@ -20388,10 +20388,10 @@
         <v>1.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.37</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU99" t="n">
         <v>1.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU102" t="n">
         <v>1.76</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT105" t="n">
         <v>0.65</v>
@@ -22012,7 +22012,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
         <v>0.9399999999999999</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT107" t="n">
         <v>1.06</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU109" t="n">
         <v>1.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.44</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.16</v>
@@ -23639,7 +23639,7 @@
         <v>1.44</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -24045,7 +24045,7 @@
         <v>1.31</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.6</v>
@@ -24857,7 +24857,7 @@
         <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25260,7 +25260,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT122" t="n">
         <v>1.53</v>
@@ -25466,7 +25466,7 @@
         <v>1.59</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU123" t="n">
         <v>1.58</v>
@@ -25666,7 +25666,7 @@
         <v>1.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
         <v>1.06</v>
@@ -26072,7 +26072,7 @@
         <v>2.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT126" t="n">
         <v>1.56</v>
@@ -26478,7 +26478,7 @@
         <v>1.13</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT128" t="n">
         <v>1.24</v>
@@ -27090,7 +27090,7 @@
         <v>1.44</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU131" t="n">
         <v>1.88</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.6</v>
@@ -28914,10 +28914,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU140" t="n">
         <v>1.6</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT141" t="n">
         <v>1.44</v>
@@ -29323,7 +29323,7 @@
         <v>1.44</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU142" t="n">
         <v>1.26</v>
@@ -29726,7 +29726,7 @@
         <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT144" t="n">
         <v>1.53</v>
@@ -30132,7 +30132,7 @@
         <v>0.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT146" t="n">
         <v>0.9399999999999999</v>
@@ -30338,7 +30338,7 @@
         <v>1.25</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -30744,7 +30744,7 @@
         <v>2.88</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU149" t="n">
         <v>2.31</v>
@@ -32162,7 +32162,7 @@
         <v>1.3</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT156" t="n">
         <v>1.06</v>
@@ -32568,10 +32568,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU158" t="n">
         <v>1.38</v>
@@ -33586,7 +33586,7 @@
         <v>1.44</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33992,7 +33992,7 @@
         <v>1.94</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU165" t="n">
         <v>1.93</v>
@@ -34395,10 +34395,10 @@
         <v>0.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU167" t="n">
         <v>1.72</v>
@@ -34801,7 +34801,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT169" t="n">
         <v>1.38</v>
@@ -35007,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>0.9</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT171" t="n">
         <v>1.06</v>
@@ -35410,7 +35410,7 @@
         <v>0.8</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT172" t="n">
         <v>0.9399999999999999</v>
@@ -35819,7 +35819,7 @@
         <v>2.35</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU174" t="n">
         <v>2.22</v>
@@ -37034,7 +37034,7 @@
         <v>2.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT180" t="n">
         <v>2.31</v>
@@ -37443,7 +37443,7 @@
         <v>1.59</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37646,7 +37646,7 @@
         <v>1.31</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -38455,7 +38455,7 @@
         <v>2.18</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT187" t="n">
         <v>2.31</v>
@@ -39064,10 +39064,10 @@
         <v>0.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU190" t="n">
         <v>1.33</v>
@@ -39270,7 +39270,7 @@
         <v>1.75</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU191" t="n">
         <v>1.73</v>
@@ -39876,10 +39876,10 @@
         <v>1.08</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU194" t="n">
         <v>1.87</v>
@@ -40485,7 +40485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT197" t="n">
         <v>0.65</v>
@@ -40894,7 +40894,7 @@
         <v>2.35</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU199" t="n">
         <v>2.22</v>
@@ -41297,7 +41297,7 @@
         <v>1.25</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT201" t="n">
         <v>1.24</v>
@@ -41503,7 +41503,7 @@
         <v>1.44</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU202" t="n">
         <v>1.7</v>
@@ -42721,7 +42721,7 @@
         <v>1.44</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU208" t="n">
         <v>1.29</v>
@@ -42921,7 +42921,7 @@
         <v>2.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT209" t="n">
         <v>2.31</v>
@@ -43530,10 +43530,10 @@
         <v>1.08</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43936,7 +43936,7 @@
         <v>1.08</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT214" t="n">
         <v>0.9399999999999999</v>
@@ -44545,7 +44545,7 @@
         <v>1.92</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT217" t="n">
         <v>1.56</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT219" t="n">
         <v>1.38</v>
@@ -45360,7 +45360,7 @@
         <v>1.25</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU221" t="n">
         <v>1.82</v>
@@ -45969,7 +45969,7 @@
         <v>1.44</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46172,7 +46172,7 @@
         <v>1.94</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU225" t="n">
         <v>1.92</v>
@@ -46372,7 +46372,7 @@
         <v>1.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT226" t="n">
         <v>1.24</v>
@@ -46778,7 +46778,7 @@
         <v>1.43</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT228" t="n">
         <v>1.44</v>
@@ -46981,10 +46981,10 @@
         <v>1.07</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -47387,7 +47387,7 @@
         <v>1.43</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT231" t="n">
         <v>1.47</v>
@@ -48202,7 +48202,7 @@
         <v>1.75</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU235" t="n">
         <v>1.68</v>
@@ -48608,7 +48608,7 @@
         <v>1.94</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU237" t="n">
         <v>1.9</v>
@@ -49014,7 +49014,7 @@
         <v>1.31</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU239" t="n">
         <v>1.55</v>
@@ -50026,10 +50026,10 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU244" t="n">
         <v>1.83</v>
@@ -50638,7 +50638,7 @@
         <v>1.19</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AU247" t="n">
         <v>1.42</v>
@@ -50841,7 +50841,7 @@
         <v>1.19</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -51244,7 +51244,7 @@
         <v>1.23</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT250" t="n">
         <v>1.19</v>
@@ -51650,7 +51650,7 @@
         <v>1.23</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AT252" t="n">
         <v>1.19</v>
@@ -52056,7 +52056,7 @@
         <v>1.07</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT254" t="n">
         <v>1.06</v>
@@ -52262,7 +52262,7 @@
         <v>1.59</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU255" t="n">
         <v>1.44</v>
@@ -53329,6 +53329,818 @@
       </c>
       <c r="BK260" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6021810</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['36', '86']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>12</v>
+      </c>
+      <c r="R261" t="n">
+        <v>6</v>
+      </c>
+      <c r="S261" t="n">
+        <v>18</v>
+      </c>
+      <c r="T261" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6127504</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3</v>
+      </c>
+      <c r="K262" t="n">
+        <v>3</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>4</v>
+      </c>
+      <c r="N262" t="n">
+        <v>4</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['20', '28', '45+3', '88']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>4</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>7</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X262" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6021808</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>9</v>
+      </c>
+      <c r="R263" t="n">
+        <v>9</v>
+      </c>
+      <c r="S263" t="n">
+        <v>18</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X263" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6021809</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['56', '60']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>4</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2</v>
+      </c>
+      <c r="S264" t="n">
+        <v>6</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V264" t="n">
+        <v>5</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X264" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK264"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT2" t="n">
         <v>1.06</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT5" t="n">
         <v>1.56</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT6" t="n">
         <v>0.9399999999999999</v>
@@ -1918,7 +1918,7 @@
         <v>1.18</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.47</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT11" t="n">
         <v>0.65</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.31</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.44</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT16" t="n">
         <v>1.38</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT22" t="n">
         <v>1.24</v>
@@ -5369,7 +5369,7 @@
         <v>1.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU24" t="n">
         <v>2.02</v>
@@ -5978,7 +5978,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU28" t="n">
         <v>1.34</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
         <v>1.24</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT34" t="n">
         <v>1.06</v>
@@ -7602,7 +7602,7 @@
         <v>1.47</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
         <v>0.59</v>
@@ -8008,7 +8008,7 @@
         <v>2.35</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT39" t="n">
         <v>1.24</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT42" t="n">
         <v>0.65</v>
@@ -9226,7 +9226,7 @@
         <v>1.47</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT44" t="n">
         <v>1.24</v>
@@ -9629,7 +9629,7 @@
         <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>1.24</v>
@@ -10038,7 +10038,7 @@
         <v>1.47</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.15</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU53" t="n">
         <v>1.36</v>
@@ -11459,7 +11459,7 @@
         <v>1.18</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.2</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT55" t="n">
         <v>1.47</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12065,10 +12065,10 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12268,7 +12268,7 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
         <v>1.56</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -14301,7 +14301,7 @@
         <v>2.35</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -14501,10 +14501,10 @@
         <v>2.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU70" t="n">
         <v>1.88</v>
@@ -15110,10 +15110,10 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -16125,7 +16125,7 @@
         <v>1.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT77" t="n">
         <v>1.24</v>
@@ -16331,7 +16331,7 @@
         <v>1.47</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -16937,10 +16937,10 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU82" t="n">
         <v>1.54</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT84" t="n">
         <v>1.06</v>
@@ -17952,10 +17952,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18158,7 +18158,7 @@
         <v>1.44</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -18358,10 +18358,10 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT89" t="n">
         <v>0.9399999999999999</v>
@@ -18767,7 +18767,7 @@
         <v>1.18</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -19576,7 +19576,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT94" t="n">
         <v>1.24</v>
@@ -20188,7 +20188,7 @@
         <v>1.44</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.93</v>
@@ -20388,10 +20388,10 @@
         <v>1.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU98" t="n">
         <v>1.37</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT99" t="n">
         <v>0.59</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
         <v>0.6899999999999999</v>
@@ -21406,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -21609,7 +21609,7 @@
         <v>2.88</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -22418,7 +22418,7 @@
         <v>2.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT108" t="n">
         <v>1.56</v>
@@ -22824,7 +22824,7 @@
         <v>1.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT110" t="n">
         <v>1.47</v>
@@ -23030,7 +23030,7 @@
         <v>1.44</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU111" t="n">
         <v>1.97</v>
@@ -23233,7 +23233,7 @@
         <v>1.44</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU112" t="n">
         <v>1.16</v>
@@ -23433,10 +23433,10 @@
         <v>0.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU113" t="n">
         <v>1.57</v>
@@ -23839,10 +23839,10 @@
         <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24448,7 +24448,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT118" t="n">
         <v>0.65</v>
@@ -24654,7 +24654,7 @@
         <v>2.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -24854,10 +24854,10 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25263,7 +25263,7 @@
         <v>1.47</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU122" t="n">
         <v>1.89</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT123" t="n">
         <v>1.24</v>
@@ -26072,7 +26072,7 @@
         <v>2.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT126" t="n">
         <v>1.56</v>
@@ -26681,10 +26681,10 @@
         <v>1.43</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.9399999999999999</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT132" t="n">
         <v>1.38</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27699,7 +27699,7 @@
         <v>2.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU134" t="n">
         <v>2.19</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU135" t="n">
         <v>1.6</v>
@@ -28305,10 +28305,10 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28508,7 +28508,7 @@
         <v>1.56</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
         <v>1.47</v>
@@ -28711,10 +28711,10 @@
         <v>0.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.59</v>
@@ -29117,10 +29117,10 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU141" t="n">
         <v>1.4</v>
@@ -29729,7 +29729,7 @@
         <v>1.18</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30135,7 +30135,7 @@
         <v>1.47</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU146" t="n">
         <v>1.85</v>
@@ -30335,7 +30335,7 @@
         <v>0.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT147" t="n">
         <v>0.6899999999999999</v>
@@ -30744,7 +30744,7 @@
         <v>2.88</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU149" t="n">
         <v>2.31</v>
@@ -30944,7 +30944,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT150" t="n">
         <v>1.38</v>
@@ -31350,7 +31350,7 @@
         <v>1.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT152" t="n">
         <v>0.9399999999999999</v>
@@ -31556,7 +31556,7 @@
         <v>1.44</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.5</v>
@@ -32365,10 +32365,10 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU157" t="n">
         <v>1.6</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT158" t="n">
         <v>0.59</v>
@@ -32774,7 +32774,7 @@
         <v>1.44</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU159" t="n">
         <v>1.26</v>
@@ -32974,7 +32974,7 @@
         <v>2.4</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>2.35</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU161" t="n">
         <v>2.16</v>
@@ -33380,10 +33380,10 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33586,7 +33586,7 @@
         <v>1.44</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33989,7 +33989,7 @@
         <v>1.3</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT165" t="n">
         <v>1.24</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT166" t="n">
         <v>0.65</v>
@@ -35207,10 +35207,10 @@
         <v>0.9</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35413,7 +35413,7 @@
         <v>1.18</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35613,7 +35613,7 @@
         <v>1.45</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT173" t="n">
         <v>1.47</v>
@@ -36022,7 +36022,7 @@
         <v>1.44</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36222,7 +36222,7 @@
         <v>1.45</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT176" t="n">
         <v>1.06</v>
@@ -36428,7 +36428,7 @@
         <v>1.44</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU177" t="n">
         <v>1.32</v>
@@ -36628,7 +36628,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT178" t="n">
         <v>0.9399999999999999</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT179" t="n">
         <v>1.38</v>
@@ -37037,7 +37037,7 @@
         <v>1.47</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU180" t="n">
         <v>1.93</v>
@@ -37440,10 +37440,10 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT185" t="n">
         <v>1.06</v>
@@ -38255,7 +38255,7 @@
         <v>1.44</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.28</v>
@@ -38458,7 +38458,7 @@
         <v>1.18</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU187" t="n">
         <v>1.6</v>
@@ -38661,7 +38661,7 @@
         <v>1.44</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -38864,7 +38864,7 @@
         <v>1</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU189" t="n">
         <v>1.48</v>
@@ -39064,7 +39064,7 @@
         <v>0.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT190" t="n">
         <v>0.6899999999999999</v>
@@ -39267,7 +39267,7 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT191" t="n">
         <v>0.59</v>
@@ -39470,10 +39470,10 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -40079,7 +40079,7 @@
         <v>1.17</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT195" t="n">
         <v>0.9399999999999999</v>
@@ -40688,7 +40688,7 @@
         <v>1.55</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT198" t="n">
         <v>1.38</v>
@@ -40894,7 +40894,7 @@
         <v>2.35</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU199" t="n">
         <v>2.22</v>
@@ -41703,10 +41703,10 @@
         <v>0.83</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU203" t="n">
         <v>1.78</v>
@@ -42109,10 +42109,10 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU205" t="n">
         <v>1.89</v>
@@ -42312,10 +42312,10 @@
         <v>2.08</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU206" t="n">
         <v>1.79</v>
@@ -42518,7 +42518,7 @@
         <v>1.31</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU207" t="n">
         <v>1.68</v>
@@ -42921,10 +42921,10 @@
         <v>2.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -43124,7 +43124,7 @@
         <v>1.31</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT210" t="n">
         <v>1.47</v>
@@ -43327,7 +43327,7 @@
         <v>1.23</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT211" t="n">
         <v>1.24</v>
@@ -43736,7 +43736,7 @@
         <v>2.35</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU213" t="n">
         <v>2.19</v>
@@ -44751,7 +44751,7 @@
         <v>1.31</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>1.62</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT219" t="n">
         <v>1.38</v>
@@ -45154,10 +45154,10 @@
         <v>2.31</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT220" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU220" t="n">
         <v>1.75</v>
@@ -45357,7 +45357,7 @@
         <v>0.54</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT221" t="n">
         <v>0.6899999999999999</v>
@@ -45563,7 +45563,7 @@
         <v>2.88</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU222" t="n">
         <v>2.27</v>
@@ -45766,7 +45766,7 @@
         <v>1.44</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU223" t="n">
         <v>1.31</v>
@@ -45969,7 +45969,7 @@
         <v>1.44</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46169,7 +46169,7 @@
         <v>0.46</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT225" t="n">
         <v>0.59</v>
@@ -46372,7 +46372,7 @@
         <v>1.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT226" t="n">
         <v>1.24</v>
@@ -46575,7 +46575,7 @@
         <v>1.14</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT227" t="n">
         <v>1.06</v>
@@ -46781,7 +46781,7 @@
         <v>1.47</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU228" t="n">
         <v>1.84</v>
@@ -47590,10 +47590,10 @@
         <v>1.86</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU232" t="n">
         <v>1.65</v>
@@ -47999,7 +47999,7 @@
         <v>1.44</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU234" t="n">
         <v>1.82</v>
@@ -48199,10 +48199,10 @@
         <v>1.07</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU235" t="n">
         <v>1.68</v>
@@ -48405,7 +48405,7 @@
         <v>1.44</v>
       </c>
       <c r="AT236" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU236" t="n">
         <v>1.72</v>
@@ -48605,7 +48605,7 @@
         <v>0.71</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT237" t="n">
         <v>0.6899999999999999</v>
@@ -48808,10 +48808,10 @@
         <v>0.93</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>1.81</v>
@@ -49620,7 +49620,7 @@
         <v>0.53</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT242" t="n">
         <v>0.65</v>
@@ -49823,10 +49823,10 @@
         <v>0.93</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU243" t="n">
         <v>1.62</v>
@@ -50029,7 +50029,7 @@
         <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU244" t="n">
         <v>1.83</v>
@@ -50229,7 +50229,7 @@
         <v>1.27</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT245" t="n">
         <v>1.24</v>
@@ -50432,10 +50432,10 @@
         <v>2.27</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -51044,7 +51044,7 @@
         <v>2.88</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU249" t="n">
         <v>2.2</v>
@@ -51447,7 +51447,7 @@
         <v>1.4</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT251" t="n">
         <v>1.47</v>
@@ -51856,7 +51856,7 @@
         <v>2.35</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU253" t="n">
         <v>2.12</v>
@@ -52059,7 +52059,7 @@
         <v>1.47</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU254" t="n">
         <v>1.66</v>
@@ -52259,7 +52259,7 @@
         <v>0.47</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT255" t="n">
         <v>0.59</v>
@@ -52868,7 +52868,7 @@
         <v>1.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT258" t="n">
         <v>1.47</v>
@@ -53074,7 +53074,7 @@
         <v>2.35</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU259" t="n">
         <v>2.07</v>
@@ -53477,7 +53477,7 @@
         <v>0.44</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT261" t="n">
         <v>0.59</v>
@@ -53886,7 +53886,7 @@
         <v>1.47</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU263" t="n">
         <v>1.66</v>
@@ -54141,6 +54141,1224 @@
       </c>
       <c r="BK264" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6021811</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45069.58333333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>2</v>
+      </c>
+      <c r="R265" t="n">
+        <v>8</v>
+      </c>
+      <c r="S265" t="n">
+        <v>10</v>
+      </c>
+      <c r="T265" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6021812</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45069.58333333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>2</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>4</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>5</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['2', '5']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['21', '35', '67']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>4</v>
+      </c>
+      <c r="R266" t="n">
+        <v>6</v>
+      </c>
+      <c r="S266" t="n">
+        <v>10</v>
+      </c>
+      <c r="T266" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6021813</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45069.58333333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['2', '39']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>12</v>
+      </c>
+      <c r="R267" t="n">
+        <v>6</v>
+      </c>
+      <c r="S267" t="n">
+        <v>18</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V267" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6021814</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45070.58333333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>2</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>2</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['8', '26']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>2</v>
+      </c>
+      <c r="R268" t="n">
+        <v>10</v>
+      </c>
+      <c r="S268" t="n">
+        <v>12</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>6021815</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45070.58333333334</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['48', '87']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>11</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1</v>
+      </c>
+      <c r="S269" t="n">
+        <v>12</v>
+      </c>
+      <c r="T269" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>6021816</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45070.58333333334</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>4</v>
+      </c>
+      <c r="R270" t="n">
+        <v>9</v>
+      </c>
+      <c r="S270" t="n">
+        <v>13</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X270" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.56</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT8" t="n">
         <v>1.61</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT9" t="n">
         <v>1.24</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU20" t="n">
         <v>2.04</v>
@@ -4760,7 +4760,7 @@
         <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -5166,7 +5166,7 @@
         <v>1.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>1.15</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT24" t="n">
         <v>1.53</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.64</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT29" t="n">
         <v>0.9399999999999999</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -7196,7 +7196,7 @@
         <v>1.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT37" t="n">
         <v>1.61</v>
@@ -8211,7 +8211,7 @@
         <v>1.18</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU38" t="n">
         <v>1.07</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT41" t="n">
         <v>0.9399999999999999</v>
@@ -9023,7 +9023,7 @@
         <v>1.35</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT43" t="n">
         <v>2.24</v>
@@ -9632,7 +9632,7 @@
         <v>1.83</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -9835,7 +9835,7 @@
         <v>1.31</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT47" t="n">
         <v>0.89</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU48" t="n">
         <v>2.41</v>
@@ -10847,10 +10847,10 @@
         <v>2.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU51" t="n">
         <v>2.23</v>
@@ -11050,10 +11050,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU52" t="n">
         <v>1.92</v>
@@ -11662,7 +11662,7 @@
         <v>1.35</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU55" t="n">
         <v>1.62</v>
@@ -12271,7 +12271,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU58" t="n">
         <v>1.57</v>
@@ -12674,7 +12674,7 @@
         <v>1.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT60" t="n">
         <v>1.24</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU61" t="n">
         <v>1.64</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT62" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.45</v>
@@ -13286,7 +13286,7 @@
         <v>1.31</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.42</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT64" t="n">
         <v>0.9399999999999999</v>
@@ -13689,7 +13689,7 @@
         <v>1.75</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT65" t="n">
         <v>1.06</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU66" t="n">
         <v>1.34</v>
@@ -14098,7 +14098,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU67" t="n">
         <v>0.97</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU71" t="n">
         <v>1.24</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT73" t="n">
         <v>0.9399999999999999</v>
@@ -15519,7 +15519,7 @@
         <v>1.31</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15719,10 +15719,10 @@
         <v>2.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU75" t="n">
         <v>1.96</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16128,7 +16128,7 @@
         <v>1.35</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.79</v>
@@ -16328,7 +16328,7 @@
         <v>3</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -16534,7 +16534,7 @@
         <v>1.56</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU79" t="n">
         <v>1.3</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT80" t="n">
         <v>1.24</v>
@@ -17346,7 +17346,7 @@
         <v>1.18</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU83" t="n">
         <v>1.29</v>
@@ -17752,7 +17752,7 @@
         <v>1.44</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU85" t="n">
         <v>1.06</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18967,10 +18967,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>2.01</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19779,10 +19779,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT96" t="n">
         <v>1.06</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT97" t="n">
         <v>0.88</v>
@@ -20594,7 +20594,7 @@
         <v>1.18</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU99" t="n">
         <v>1.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.44</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21203,7 +21203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.76</v>
@@ -21606,7 +21606,7 @@
         <v>2.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT104" t="n">
         <v>2.24</v>
@@ -21812,7 +21812,7 @@
         <v>1.18</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -22012,7 +22012,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT106" t="n">
         <v>0.9399999999999999</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT107" t="n">
         <v>1.06</v>
@@ -22421,7 +22421,7 @@
         <v>1.35</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -23027,7 +23027,7 @@
         <v>1.17</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT111" t="n">
         <v>1.53</v>
@@ -23636,10 +23636,10 @@
         <v>0.57</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -24045,7 +24045,7 @@
         <v>1.31</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU116" t="n">
         <v>1.6</v>
@@ -24245,10 +24245,10 @@
         <v>1.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU117" t="n">
         <v>1.88</v>
@@ -24451,7 +24451,7 @@
         <v>1.71</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU118" t="n">
         <v>1.93</v>
@@ -24651,7 +24651,7 @@
         <v>0.83</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -25057,10 +25057,10 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25260,7 +25260,7 @@
         <v>2.29</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT122" t="n">
         <v>1.61</v>
@@ -25666,7 +25666,7 @@
         <v>1.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT124" t="n">
         <v>1.06</v>
@@ -25869,7 +25869,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT125" t="n">
         <v>0.9399999999999999</v>
@@ -26075,7 +26075,7 @@
         <v>1.35</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU126" t="n">
         <v>1.43</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26481,7 +26481,7 @@
         <v>1.18</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -27087,10 +27087,10 @@
         <v>0.57</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU131" t="n">
         <v>1.88</v>
@@ -27293,7 +27293,7 @@
         <v>1.83</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU132" t="n">
         <v>1.87</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT134" t="n">
         <v>0.88</v>
@@ -28102,10 +28102,10 @@
         <v>0.38</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.77</v>
@@ -28511,7 +28511,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU138" t="n">
         <v>1.88</v>
@@ -28914,10 +28914,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU140" t="n">
         <v>1.6</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU143" t="n">
         <v>1.59</v>
@@ -29929,7 +29929,7 @@
         <v>1.44</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT145" t="n">
         <v>1.06</v>
@@ -30132,7 +30132,7 @@
         <v>0.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT146" t="n">
         <v>0.88</v>
@@ -30338,7 +30338,7 @@
         <v>1.35</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -30538,10 +30538,10 @@
         <v>1.33</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU148" t="n">
         <v>1.78</v>
@@ -30741,7 +30741,7 @@
         <v>1.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT149" t="n">
         <v>0.89</v>
@@ -30947,7 +30947,7 @@
         <v>1.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU150" t="n">
         <v>1.61</v>
@@ -31150,7 +31150,7 @@
         <v>1.31</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU151" t="n">
         <v>1.59</v>
@@ -31553,7 +31553,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT153" t="n">
         <v>2.24</v>
@@ -31756,10 +31756,10 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU154" t="n">
         <v>1.78</v>
@@ -32571,7 +32571,7 @@
         <v>1.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU158" t="n">
         <v>1.38</v>
@@ -32977,7 +32977,7 @@
         <v>1.71</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU160" t="n">
         <v>1.82</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT161" t="n">
         <v>0.88</v>
@@ -33583,7 +33583,7 @@
         <v>1.3</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT163" t="n">
         <v>0.89</v>
@@ -34195,7 +34195,7 @@
         <v>1.18</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34395,10 +34395,10 @@
         <v>0.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU167" t="n">
         <v>1.72</v>
@@ -34598,10 +34598,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU168" t="n">
         <v>2.35</v>
@@ -34801,10 +34801,10 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT169" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AT169" t="n">
-        <v>1.38</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -35007,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35616,7 +35616,7 @@
         <v>1.83</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU173" t="n">
         <v>1.85</v>
@@ -35816,10 +35816,10 @@
         <v>0.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU174" t="n">
         <v>2.22</v>
@@ -36019,7 +36019,7 @@
         <v>1.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT175" t="n">
         <v>1.61</v>
@@ -36834,7 +36834,7 @@
         <v>1.35</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37034,7 +37034,7 @@
         <v>2.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT180" t="n">
         <v>2.24</v>
@@ -37237,10 +37237,10 @@
         <v>2.18</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU181" t="n">
         <v>2.32</v>
@@ -37846,10 +37846,10 @@
         <v>0.73</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -38658,7 +38658,7 @@
         <v>1.55</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT188" t="n">
         <v>1.53</v>
@@ -39067,7 +39067,7 @@
         <v>1.35</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU190" t="n">
         <v>1.33</v>
@@ -39270,7 +39270,7 @@
         <v>1.71</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU191" t="n">
         <v>1.73</v>
@@ -39676,7 +39676,7 @@
         <v>1.31</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -39876,7 +39876,7 @@
         <v>1.08</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT194" t="n">
         <v>1.24</v>
@@ -40282,10 +40282,10 @@
         <v>1.42</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU196" t="n">
         <v>2.29</v>
@@ -40485,10 +40485,10 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU197" t="n">
         <v>1.72</v>
@@ -40691,7 +40691,7 @@
         <v>1.56</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU198" t="n">
         <v>1.47</v>
@@ -40891,7 +40891,7 @@
         <v>1.25</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT199" t="n">
         <v>0.89</v>
@@ -41094,10 +41094,10 @@
         <v>1.36</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU200" t="n">
         <v>1.88</v>
@@ -41297,10 +41297,10 @@
         <v>1.25</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU201" t="n">
         <v>1.69</v>
@@ -41500,10 +41500,10 @@
         <v>0.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU202" t="n">
         <v>1.7</v>
@@ -41909,7 +41909,7 @@
         <v>1</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU204" t="n">
         <v>1.5</v>
@@ -42721,7 +42721,7 @@
         <v>1.44</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU208" t="n">
         <v>1.29</v>
@@ -43127,7 +43127,7 @@
         <v>1.35</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU210" t="n">
         <v>1.68</v>
@@ -43330,7 +43330,7 @@
         <v>1.56</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU211" t="n">
         <v>1.5</v>
@@ -43530,7 +43530,7 @@
         <v>1.08</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT212" t="n">
         <v>1.24</v>
@@ -43733,7 +43733,7 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT213" t="n">
         <v>1.53</v>
@@ -44142,7 +44142,7 @@
         <v>1</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU215" t="n">
         <v>1.47</v>
@@ -44342,7 +44342,7 @@
         <v>1.23</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT216" t="n">
         <v>1.06</v>
@@ -44545,10 +44545,10 @@
         <v>1.92</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU217" t="n">
         <v>1.91</v>
@@ -44954,7 +44954,7 @@
         <v>1.35</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU219" t="n">
         <v>1.35</v>
@@ -45360,7 +45360,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU221" t="n">
         <v>1.82</v>
@@ -45560,7 +45560,7 @@
         <v>2</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT222" t="n">
         <v>1.61</v>
@@ -45966,7 +45966,7 @@
         <v>1.15</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT224" t="n">
         <v>0.89</v>
@@ -46172,7 +46172,7 @@
         <v>1.83</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU225" t="n">
         <v>1.92</v>
@@ -46375,7 +46375,7 @@
         <v>1.35</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU226" t="n">
         <v>1.35</v>
@@ -46778,7 +46778,7 @@
         <v>1.43</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT228" t="n">
         <v>1.53</v>
@@ -47387,10 +47387,10 @@
         <v>1.43</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU231" t="n">
         <v>1.67</v>
@@ -47793,10 +47793,10 @@
         <v>1.79</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU233" t="n">
         <v>2.15</v>
@@ -47996,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT234" t="n">
         <v>0.88</v>
@@ -48402,7 +48402,7 @@
         <v>2.21</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT236" t="n">
         <v>2.24</v>
@@ -48608,7 +48608,7 @@
         <v>1.83</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU237" t="n">
         <v>1.9</v>
@@ -49014,7 +49014,7 @@
         <v>1.31</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU239" t="n">
         <v>1.55</v>
@@ -49214,10 +49214,10 @@
         <v>1.43</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU240" t="n">
         <v>2.23</v>
@@ -49420,7 +49420,7 @@
         <v>1.44</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU241" t="n">
         <v>1.4</v>
@@ -49623,7 +49623,7 @@
         <v>1.56</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU242" t="n">
         <v>1.46</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT244" t="n">
         <v>0.89</v>
@@ -50232,7 +50232,7 @@
         <v>1.83</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU245" t="n">
         <v>1.89</v>
@@ -50638,7 +50638,7 @@
         <v>1.19</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU247" t="n">
         <v>1.42</v>
@@ -50841,7 +50841,7 @@
         <v>1.19</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -51041,7 +51041,7 @@
         <v>1.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT249" t="n">
         <v>1.61</v>
@@ -51244,7 +51244,7 @@
         <v>1.23</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AT250" t="n">
         <v>1.19</v>
@@ -51450,7 +51450,7 @@
         <v>1.83</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU251" t="n">
         <v>1.91</v>
@@ -51650,7 +51650,7 @@
         <v>1.23</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT252" t="n">
         <v>1.19</v>
@@ -51853,7 +51853,7 @@
         <v>1.53</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT253" t="n">
         <v>1.53</v>
@@ -52056,7 +52056,7 @@
         <v>1.07</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT254" t="n">
         <v>1</v>
@@ -52262,7 +52262,7 @@
         <v>1.56</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU255" t="n">
         <v>1.44</v>
@@ -52465,7 +52465,7 @@
         <v>1</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU256" t="n">
         <v>1.43</v>
@@ -52665,10 +52665,10 @@
         <v>1.25</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU257" t="n">
         <v>1.82</v>
@@ -52871,7 +52871,7 @@
         <v>1.71</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU258" t="n">
         <v>1.68</v>
@@ -53071,7 +53071,7 @@
         <v>1.63</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AT259" t="n">
         <v>1.61</v>
@@ -53274,10 +53274,10 @@
         <v>1.67</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU260" t="n">
         <v>2.19</v>
@@ -53480,7 +53480,7 @@
         <v>1.35</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU261" t="n">
         <v>1.33</v>
@@ -53680,10 +53680,10 @@
         <v>1.28</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU262" t="n">
         <v>1.55</v>
@@ -53883,7 +53883,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT263" t="n">
         <v>0.89</v>
@@ -54086,10 +54086,10 @@
         <v>0.73</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU264" t="n">
         <v>1.83</v>
@@ -55359,6 +55359,1427 @@
       </c>
       <c r="BK270" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>6127505</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45072.54166666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>2</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['22', '57']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['52', '78', '81']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>4</v>
+      </c>
+      <c r="R271" t="n">
+        <v>5</v>
+      </c>
+      <c r="S271" t="n">
+        <v>9</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V271" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X271" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>6021817</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45073.45833333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>5</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>13</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>15</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V272" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>6021818</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45073.45833333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>5</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>4</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>4</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['24', '41', '61', '89']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>13</v>
+      </c>
+      <c r="R273" t="n">
+        <v>3</v>
+      </c>
+      <c r="S273" t="n">
+        <v>16</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V273" t="n">
+        <v>8</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>6021819</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45073.45833333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>4</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>8</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V274" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>6021820</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>5</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>2</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['30', '49']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>4</v>
+      </c>
+      <c r="R275" t="n">
+        <v>4</v>
+      </c>
+      <c r="S275" t="n">
+        <v>8</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V275" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>6021821</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4</v>
+      </c>
+      <c r="N276" t="n">
+        <v>6</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['1', '74']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['44', '48', '51', '83']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>5</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>8</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V276" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>6021822</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>11</v>
+      </c>
+      <c r="R277" t="n">
+        <v>4</v>
+      </c>
+      <c r="S277" t="n">
+        <v>15</v>
+      </c>
+      <c r="T277" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X277" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
